--- a/Методы компиляции.xlsx
+++ b/Методы компиляции.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Лабораторные работы\Семестр 6\Методы компиляции\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6DE3B9-BF67-4DE6-9940-D5F8B0CB365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EE599-775E-48AB-A643-DAFCE22081AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{79D62930-72F9-4DD1-8E2B-F1E1775E3F45}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="188">
   <si>
     <t>буква</t>
   </si>
@@ -822,7 +822,54 @@
     <t>С</t>
   </si>
   <si>
-    <t>C — равно/оператор сравнения</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — комментарий</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — / или //</t>
+    </r>
+  </si>
+  <si>
+    <t>F/30</t>
+  </si>
+  <si>
+    <t>C — = или ==</t>
+  </si>
+  <si>
+    <t>E/22</t>
   </si>
 </sst>
 </file>
@@ -895,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -908,12 +955,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1230,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA9F56D-F00E-4794-B681-57966BFBA237}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1336,7 +1382,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -1478,7 +1524,7 @@
         <v>46</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
@@ -1557,7 +1603,7 @@
         <v>46</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
@@ -1641,229 +1687,397 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="5">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="5">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="5">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="M10" s="5">
+        <v>21</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="5">
-        <v>24</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>180</v>
+        <v>67</v>
+      </c>
+      <c r="M11" s="5">
+        <v>22</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="5">
-        <v>25</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="M12" s="5">
+        <v>23</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="5">
-        <v>26</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>92</v>
+        <v>69</v>
+      </c>
+      <c r="M13" s="5">
+        <v>24</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="5">
-        <v>27</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="M14" s="5">
+        <v>25</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="5">
-        <v>28</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="M15" s="5">
+        <v>26</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="5">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="5">
+        <v>27</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="5">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="5">
+        <v>18</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="5">
+        <v>28</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G18" s="5">
         <v>19</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M18" s="5">
         <v>29</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5">
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G19" s="5">
         <v>20</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="M19" s="5">
+        <v>30</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="M20" s="5"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5"/>

--- a/Методы компиляции.xlsx
+++ b/Методы компиляции.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Лабораторные работы\Семестр 6\Методы компиляции\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EE599-775E-48AB-A643-DAFCE22081AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8947C990-5E6E-483A-AB26-98468776633C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{79D62930-72F9-4DD1-8E2B-F1E1775E3F45}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{79D62930-72F9-4DD1-8E2B-F1E1775E3F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Лексемы" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Семантическая таблица" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="270">
   <si>
     <t>буква</t>
   </si>
@@ -870,6 +871,299 @@
   </si>
   <si>
     <t>E/22</t>
+  </si>
+  <si>
+    <t>Нетерминал</t>
+  </si>
+  <si>
+    <t>`int`</t>
+  </si>
+  <si>
+    <t>`ID`</t>
+  </si>
+  <si>
+    <t>`if`</t>
+  </si>
+  <si>
+    <t>`while`</t>
+  </si>
+  <si>
+    <t>`read`</t>
+  </si>
+  <si>
+    <t>`print`</t>
+  </si>
+  <si>
+    <t>`NUMBER`</t>
+  </si>
+  <si>
+    <t>`(`</t>
+  </si>
+  <si>
+    <t>`~`</t>
+  </si>
+  <si>
+    <t>`=`</t>
+  </si>
+  <si>
+    <t>`[`</t>
+  </si>
+  <si>
+    <t>`]`</t>
+  </si>
+  <si>
+    <t>`{`</t>
+  </si>
+  <si>
+    <t>`}`</t>
+  </si>
+  <si>
+    <t>`;`</t>
+  </si>
+  <si>
+    <t>`,`</t>
+  </si>
+  <si>
+    <t>`else`</t>
+  </si>
+  <si>
+    <t>`&gt;`</t>
+  </si>
+  <si>
+    <t>`&lt;`</t>
+  </si>
+  <si>
+    <t>`==`</t>
+  </si>
+  <si>
+    <t>`&amp;`</t>
+  </si>
+  <si>
+    <t>`!`</t>
+  </si>
+  <si>
+    <t>`EOF`</t>
+  </si>
+  <si>
+    <t>**Программа**</t>
+  </si>
+  <si>
+    <t>`ε`</t>
+  </si>
+  <si>
+    <t>**ДекларацияInt**</t>
+  </si>
+  <si>
+    <t>**ХвостДекларацияInt**</t>
+  </si>
+  <si>
+    <t>**ИспользованиеInt**</t>
+  </si>
+  <si>
+    <t>**Альтернатива**</t>
+  </si>
+  <si>
+    <t>**Инициализаторы**</t>
+  </si>
+  <si>
+    <t>**ИнициализаторыПрод**</t>
+  </si>
+  <si>
+    <t>**Выражение**</t>
+  </si>
+  <si>
+    <t>**СложПрод**</t>
+  </si>
+  <si>
+    <t>**ЛогВыраж**</t>
+  </si>
+  <si>
+    <t>**ЛогИ_Прод**</t>
+  </si>
+  <si>
+    <t>**ЛогИЛИ_Прод**</t>
+  </si>
+  <si>
+    <t>**ХвостСравнения**</t>
+  </si>
+  <si>
+    <t>**ПервичноеАрифм**</t>
+  </si>
+  <si>
+    <t>**ХвостИндекса**</t>
+  </si>
+  <si>
+    <t>**ЛогическоеВыражение**</t>
+  </si>
+  <si>
+    <t>**ЛогСравн**</t>
+  </si>
+  <si>
+    <t>**ЛогОпПрод**</t>
+  </si>
+  <si>
+    <t>`int ID ДекларацияInt Программа`
+[ ][a][ ]</t>
+  </si>
+  <si>
+    <t>`ID ИспользованиеInt Программа`
+[a][ ][ ]</t>
+  </si>
+  <si>
+    <t>`if ( ЛогическоеВыражение ) { Программа } Альтернатива Программа`
+[ ][ ][ ][jf][1][ ][ ][j][2]</t>
+  </si>
+  <si>
+    <t>`while ( ЛогическоеВыражение ) { Программа } Программа`
+[ ][ ][ ][jf][3][ ][j][4]</t>
+  </si>
+  <si>
+    <t>`read ( ID ) ; Программа`
+[ ][ ][r][ ][ ]</t>
+  </si>
+  <si>
+    <t>`print ( ЛогическоеВыражение ) ; Программа`
+[ ][ ][w][ ][ ]</t>
+  </si>
+  <si>
+    <t>`= { Инициализаторы } ; Программа`
+[ ][ ][ ][init_array][ ]</t>
+  </si>
+  <si>
+    <t>`[ NUMBER ] ХвостДекларацияInt`
+[ ][k][ ][alloc_array]</t>
+  </si>
+  <si>
+    <t>`; Программа`
+[ ][ ]</t>
+  </si>
+  <si>
+    <t>`; Программа`
+[alloc_array]</t>
+  </si>
+  <si>
+    <t>`= Выражение ; Программа`
+[ ][ ][ ]</t>
+  </si>
+  <si>
+    <t>`[ Выражение ] = Выражение ; Программа`
+[ ][ ][ ][array_set][ ][ ]</t>
+  </si>
+  <si>
+    <t>`else { Программа }`
+[ ][ ][ ]</t>
+  </si>
+  <si>
+    <t>`АрифмВыражение ИнициализаторыПрод`
+[a/k][ ]</t>
+  </si>
+  <si>
+    <t>`, АрифмВыражение ИнициализаторыПрод`
+[ ][a/k][ ]</t>
+  </si>
+  <si>
+    <t>`ID СложПрод`
+[a][ ]
+`ID [ Выражение ] СложПрод`
+[a][ ][array_get][ ]</t>
+  </si>
+  <si>
+    <t>`( Выражение ) СложПрод`
+[ ][ ][ ][ ]</t>
+  </si>
+  <si>
+    <t>`~ Выражение СложПрод`
+[ ][~]</t>
+  </si>
+  <si>
+    <t>`+ Выражение СложПрод`
+[ ][+][ ]
+`- Выражение СложПрод`
+[ ][-][ ]</t>
+  </si>
+  <si>
+    <t>`ПервичноеАрифм ХвостСравнения ЛогИ_Прод ЛогИЛИ_Прод`
+[ ][ ][ ][ ]</t>
+  </si>
+  <si>
+    <t>`( ЛогВыраж ) ЛогИ_Прод ЛогИЛИ_Прод`
+[ ][ ][ ][ ][ ]</t>
+  </si>
+  <si>
+    <t>`! ЛогВыраж ЛогИ_Прод ЛогИЛИ_Прод`
+[ ][ ][ ][ ]</t>
+  </si>
+  <si>
+    <t>`&amp; ЛогВыраж ЛогИ_Прод`
+[ ][&amp;][ ]</t>
+  </si>
+  <si>
+    <t>`&gt; АрифмВыраж`
+[ ][&gt;]</t>
+  </si>
+  <si>
+    <t>`&lt; АрифмВыраж`
+[ ][&lt;]</t>
+  </si>
+  <si>
+    <t>`== АрифмВыраж`
+[ ][==]</t>
+  </si>
+  <si>
+    <t>`ID ХвостИндекса`
+[a][ ]</t>
+  </si>
+  <si>
+    <t>`NUMBER`
+[k]</t>
+  </si>
+  <si>
+    <t>`( АрифмВыраж )`
+[ ][ ][ ]</t>
+  </si>
+  <si>
+    <t>`~ АрифмВыраж`
+[ ][~]</t>
+  </si>
+  <si>
+    <t>`[ АрифмВыраж ]`
+[ ][ ][array_get]</t>
+  </si>
+  <si>
+    <t>`ID ЛогСравн`
+[a][ ]
+`ID [ Выражение ] ЛогСравн`
+[a][ ][array_get][ ]</t>
+  </si>
+  <si>
+    <t>`( Выражение ) ЛогСравн`
+[ ][ ][ ][ ]</t>
+  </si>
+  <si>
+    <t>`~ Выражение ЛогСравн`
+[ ][~]</t>
+  </si>
+  <si>
+    <t>`! ЛогическоеВыражение ЛогОпПрод`
+[ ][ ][ ]
+`( ЛогическоеВыражение ) ЛогОпПрод`
+[ ][ ][ ][ ]</t>
+  </si>
+  <si>
+    <t>`&gt; Выражение ЛогОпПрод`
+[ ][&gt;][ ]</t>
+  </si>
+  <si>
+    <t>`&lt; Выражение ЛогОпПрод`
+[ ][&lt;][ ]</t>
+  </si>
+  <si>
+    <t>`== Выражение ЛогОпПрод`
+[ ][==][ ]</t>
+  </si>
+  <si>
+    <t>`&amp; ЛогическоеВыражение ЛогОпПрод`
+[ ][&amp;][ ]</t>
   </si>
 </sst>
 </file>
@@ -942,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -960,6 +1254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1276,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA9F56D-F00E-4794-B681-57966BFBA237}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2091,6 +2388,723 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61C3F4-ED92-485C-95FC-6992DE1D79E6}">
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:Y19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="25" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" ht="40.049999999999997" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F342978-6793-4EC0-A5B7-5B22A9E04969}">
   <dimension ref="A3:F31"/>
   <sheetViews>
